--- a/PCB_ELAB/Project Outputs for PCB_Project1/DigiKey.xlsx
+++ b/PCB_ELAB/Project Outputs for PCB_Project1/DigiKey.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorjo80\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Jorge\UPM\master\ELAB\Trabajo ELAB\PCB_ELAB\Project Outputs for PCB_Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E88D7B-947F-436C-917E-66DE78124A84}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F364FDA-F14F-4D13-B93B-6BE904C4C62F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="19020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>Índice</t>
   </si>
@@ -253,6 +253,69 @@
   </si>
   <si>
     <t>IC AMP AUDIO PWR .325W AB 8SOIC</t>
+  </si>
+  <si>
+    <t>DF01S Series 1.5 A 100 V 5 uA Surface Mount Bridge Rectifier -SDIP-4</t>
+  </si>
+  <si>
+    <t>REGULATOR</t>
+  </si>
+  <si>
+    <t>CAP ALUM 1000UF 35V THT</t>
+  </si>
+  <si>
+    <t>100V 1 Amp General Purpose Rectifier</t>
+  </si>
+  <si>
+    <t>RES 0603 SMD 1K</t>
+  </si>
+  <si>
+    <t>LED GREEN 0805</t>
+  </si>
+  <si>
+    <t>CAP SMD 0603 1UF</t>
+  </si>
+  <si>
+    <t>CAP SMD 0805 10UF</t>
+  </si>
+  <si>
+    <t>CAP SMD 0603 0.1UF</t>
+  </si>
+  <si>
+    <t>RES 0603 SMD 6.2k</t>
+  </si>
+  <si>
+    <t>RES 0805 SMD 0OHM</t>
+  </si>
+  <si>
+    <t>Potenciometros Logarítimicos 10k</t>
+  </si>
+  <si>
+    <t>220uF electrolitic 16V</t>
+  </si>
+  <si>
+    <t>47nF ceramic capacitors 0805 package</t>
+  </si>
+  <si>
+    <t>100nF ceramic capacitors 0805 package</t>
+  </si>
+  <si>
+    <t>10uF ceramic capacitors 0805 package</t>
+  </si>
+  <si>
+    <t>10uF ceramic capacitors 1206 package</t>
+  </si>
+  <si>
+    <t>220nF cercamic capacirtors 1206 package</t>
+  </si>
+  <si>
+    <t>10 ohmios resistors 0805 package</t>
+  </si>
+  <si>
+    <t>3.5mm Jack connector</t>
+  </si>
+  <si>
+    <t>6.5 mm Jack connector</t>
   </si>
 </sst>
 </file>
@@ -271,15 +334,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -287,15 +356,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -612,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -677,6 +758,9 @@
       <c r="E2" t="s">
         <v>12</v>
       </c>
+      <c r="F2" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="G2" s="3">
         <v>5</v>
       </c>
@@ -706,6 +790,9 @@
       <c r="E3" t="s">
         <v>15</v>
       </c>
+      <c r="F3" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="G3" s="3">
         <v>5</v>
       </c>
@@ -735,6 +822,9 @@
       <c r="E4" t="s">
         <v>18</v>
       </c>
+      <c r="F4" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="G4" s="3">
         <v>10</v>
       </c>
@@ -764,6 +854,9 @@
       <c r="E5" t="s">
         <v>21</v>
       </c>
+      <c r="F5" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="G5" s="3">
         <v>10</v>
       </c>
@@ -792,6 +885,9 @@
       </c>
       <c r="E6" t="s">
         <v>24</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="G6" s="3">
         <v>10</v>
@@ -822,6 +918,9 @@
       <c r="E7" t="s">
         <v>27</v>
       </c>
+      <c r="F7" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="G7" s="3">
         <v>5</v>
       </c>
@@ -851,6 +950,9 @@
       <c r="E8" t="s">
         <v>30</v>
       </c>
+      <c r="F8" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="G8" s="3">
         <v>5</v>
       </c>
@@ -880,6 +982,9 @@
       <c r="E9" t="s">
         <v>33</v>
       </c>
+      <c r="F9" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="G9" s="3">
         <v>5</v>
       </c>
@@ -909,6 +1014,9 @@
       <c r="E10" t="s">
         <v>36</v>
       </c>
+      <c r="F10" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="G10" s="3">
         <v>5</v>
       </c>
@@ -938,6 +1046,9 @@
       <c r="E11" t="s">
         <v>39</v>
       </c>
+      <c r="F11" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="G11" s="3">
         <v>5</v>
       </c>
@@ -951,7 +1062,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -966,6 +1077,9 @@
       </c>
       <c r="E12" t="s">
         <v>42</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="G12" s="3">
         <v>10</v>
@@ -996,6 +1110,9 @@
       <c r="E13" t="s">
         <v>45</v>
       </c>
+      <c r="F13" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="G13" s="3">
         <v>14</v>
       </c>
@@ -1025,6 +1142,9 @@
       <c r="E14" t="s">
         <v>48</v>
       </c>
+      <c r="F14" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="G14" s="3">
         <v>10</v>
       </c>
@@ -1054,6 +1174,9 @@
       <c r="E15" t="s">
         <v>50</v>
       </c>
+      <c r="F15" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="G15" s="3">
         <v>10</v>
       </c>
@@ -1083,6 +1206,9 @@
       <c r="E16" t="s">
         <v>53</v>
       </c>
+      <c r="F16" s="6" t="s">
+        <v>89</v>
+      </c>
       <c r="G16" s="3">
         <v>10</v>
       </c>
@@ -1112,6 +1238,9 @@
       <c r="E17" t="s">
         <v>56</v>
       </c>
+      <c r="F17" s="6" t="s">
+        <v>90</v>
+      </c>
       <c r="G17" s="3">
         <v>15</v>
       </c>
@@ -1141,6 +1270,9 @@
       <c r="E18" t="s">
         <v>59</v>
       </c>
+      <c r="F18" s="6" t="s">
+        <v>91</v>
+      </c>
       <c r="G18" s="3">
         <v>5</v>
       </c>
@@ -1170,6 +1302,9 @@
       <c r="E19" t="s">
         <v>62</v>
       </c>
+      <c r="F19" s="6" t="s">
+        <v>92</v>
+      </c>
       <c r="G19" s="3">
         <v>10</v>
       </c>
@@ -1199,6 +1334,9 @@
       <c r="E20" t="s">
         <v>65</v>
       </c>
+      <c r="F20" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="G20" s="3">
         <v>10</v>
       </c>
@@ -1228,6 +1366,9 @@
       <c r="E21" t="s">
         <v>68</v>
       </c>
+      <c r="F21" s="6" t="s">
+        <v>94</v>
+      </c>
       <c r="G21" s="3">
         <v>5</v>
       </c>
@@ -1256,6 +1397,9 @@
       </c>
       <c r="E22" t="s">
         <v>71</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="G22" s="3">
         <v>5</v>
